--- a/instance/zyjk/EHR/controlRule/config/diabetesVisitRule2.3.1(1)(1)(1).xlsx
+++ b/instance/zyjk/EHR/controlRule/config/diabetesVisitRule2.3.1(1)(1)(1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\51\python\project\instance\zyjk\EHR\controlRule\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28128" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="rule" sheetId="1" r:id="rId1"/>
@@ -24,30 +29,30 @@
     <author>sy</author>
   </authors>
   <commentList>
-    <comment ref="N74" authorId="0">
+    <comment ref="N74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>sy:
 是否一定要填药物信息？“是否服药”字段选择“不服药”则可以是空值。</t>
         </r>
       </text>
     </comment>
-    <comment ref="N75" authorId="0">
+    <comment ref="N75" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>sy:
 是否失访是哪个字段？
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3324" uniqueCount="1653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="1657">
   <si>
     <t>RuleId</t>
   </si>
@@ -3990,40 +3995,7 @@
     <t>时间</t>
   </si>
   <si>
-    <t>同时满足以下条件：
-1、是否失访勾选“否” 
-2、空腹血糖为空值
-3、空腹血糖（OGTT)为空值
-4、餐后两小时血糖（OGTT）为空值
-5、随机血糖为空值</t>
-  </si>
-  <si>
-    <t>UPDATE tb_dc_dm_visit 
-SET vistStatusCode = '1',
-fastingBloodSugarValue = NULL,
-randomBloodSugarValue = NULL,
-fastingBloodSugarOGTTValue = NULL,
-twoHBloodSugarOGTTValue = NULL 
-FROM
- tb_dc_dm_visit AS dm
- INNER JOIN tb_dc_chronic_main AS cMain ON dm.visitOrgCode = cMain.orgCode 
- AND dm.cardId = cMain.visitNum
- INNER JOIN tb_dc_chronic_info AS cInfo ON cInfo.orgCode = cMain.orgCode 
- AND cInfo.manageNum = cMain.manageNum
- INNER JOIN tb_empi_index_root AS empi ON cInfo.empiGuid = empi.guid 
-WHERE
- empi.idCardNo = '310110193707230016'</t>
-  </si>
-  <si>
     <t>正向1</t>
-  </si>
-  <si>
-    <t>同时满足以下条件：
-1、是否失访为null值
-2、空腹血糖为空值
-3、空腹血糖（OGTT)为空值
-4、餐后两小时血糖（OGTT）为空值
-5、随机血糖为空值</t>
   </si>
   <si>
     <t>UPDATE tb_dc_dm_visit 
@@ -4268,19 +4240,6 @@
     <t>同时满足以下条件：
 1、是否失访值为1 
 2、收缩压不为空值</t>
-  </si>
-  <si>
-    <t>UPDATE tb_dc_dm_visit 
-SET vistStatusCode = 1, sbp=1
-FROM
- tb_dc_dm_visit AS dm
- INNER JOIN tb_dc_chronic_main AS cMain ON dm.visitOrgCode = cMain.orgCode 
- AND dm.cardId = cMain.visitNum
- INNER JOIN tb_dc_chronic_info AS cInfo ON cInfo.orgCode = cMain.orgCode 
- AND cInfo.manageNum = cMain.manageNum
- INNER JOIN tb_empi_index_root AS empi ON cInfo.empiGuid = empi.guid 
-WHERE
- empi.idCardNo = '310110193707230016'</t>
   </si>
   <si>
     <t>同时满足以下条件：
@@ -8569,9 +8528,6 @@
  empi.idCardNo = '31011019560112082X'</t>
   </si>
   <si>
-    <t>58b65e08e6224607a696fd90b1fb09d3</t>
-  </si>
-  <si>
     <t>同时满足以下条件：
 1、是否失访勾选“否”
 5、随访日期不为空值</t>
@@ -8753,19 +8709,88 @@
  empi.idCardNo = '31011019560112082X'
    </t>
   </si>
+  <si>
+    <t>UPDATE tb_dc_dm_visit 
+SET vistStatusCode = 1, sbp=1
+FROM
+ tb_dc_dm_visit AS dm
+ INNER JOIN tb_dc_chronic_main AS cMain ON dm.visitOrgCode = cMain.orgCode 
+ AND dm.cardId = cMain.visitNum
+ INNER JOIN tb_dc_chronic_info AS cInfo ON cInfo.orgCode = cMain.orgCode 
+ AND cInfo.manageNum = cMain.manageNum
+ INNER JOIN tb_empi_index_root AS empi ON cInfo.empiGuid = empi.guid 
+WHERE
+ empi.idCardNo = '310110193707230016'</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>58b65e08e6224607a696fd90b1fb09d3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1f536a73299c4b4f8d84ad9cc8e2204c</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>81205cd1910c4f2ba53bb640b1b01b0a</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时满足以下条件：
+1、是否失访为null值
+2、空腹血糖为空值
+3、空腹血糖（OGTT)为空值
+4、餐后两小时血糖（OGTT）为空值
+5、随机血糖为空值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时满足以下条件：
+1、是否失访勾选“否” 
+2、空腹血糖为空值
+3、空腹血糖（OGTT)为空值
+4、餐后两小时血糖（OGTT）为空值
+5、随机血糖为空值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE tb_dc_dm_visit 
+SET vistStatusCode = '1',
+fastingBloodSugarValue = NULL,
+randomBloodSugarValue = NULL,
+fastingBloodSugarOGTTValue = NULL,
+twoHBloodSugarOGTTValue = NULL 
+FROM
+ tb_dc_dm_visit AS dm
+ INNER JOIN tb_dc_chronic_main AS cMain ON dm.visitOrgCode = cMain.orgCode 
+ AND dm.cardId = cMain.visitNum
+ INNER JOIN tb_dc_chronic_info AS cInfo ON cInfo.orgCode = cMain.orgCode 
+ AND cInfo.manageNum = cMain.manageNum
+ INNER JOIN tb_empi_index_root AS empi ON cInfo.empiGuid = empi.guid 
+WHERE
+ empi.idCardNo = '310110193707230016'</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastingBloodSugarValue   空腹血糖值
+randomBloodSugarValue      随机血糖值
+fastingBloodSugarOGTTValue   空腹血糖（OGTT）值
+twoHBloodSugarOGTTValue 餐后2小时血糖（OGTT）值</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机血糖未填写</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8824,150 +8849,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8976,11 +8857,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9001,7 +8896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9031,7 +8926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9041,194 +8936,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -9264,255 +8973,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9644,77 +9111,110 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9728,7 +9228,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9972,49 +9472,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="M32" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U65" sqref="U65"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44166666666667" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.775" style="15" customWidth="1"/>
-    <col min="3" max="3" width="2.66666666666667" style="15" customWidth="1"/>
-    <col min="4" max="5" width="4.775" style="15" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="4.77734375" style="15" customWidth="1"/>
     <col min="6" max="6" width="72" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.10833333333333" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.66666666666667" style="15" customWidth="1"/>
-    <col min="9" max="9" width="7.33333333333333" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="15" customWidth="1"/>
     <col min="10" max="10" width="4" style="15" customWidth="1"/>
-    <col min="11" max="11" width="4.775" style="15" customWidth="1"/>
-    <col min="12" max="12" width="3.775" style="15" customWidth="1"/>
-    <col min="13" max="13" width="6.10833333333333" style="15" customWidth="1"/>
-    <col min="14" max="14" width="5.55833333333333" style="15" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" style="15" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="15" customWidth="1"/>
     <col min="15" max="15" width="4" style="15" customWidth="1"/>
-    <col min="16" max="16" width="4.44166666666667" style="15" customWidth="1"/>
-    <col min="17" max="17" width="4.33333333333333" style="15" customWidth="1"/>
-    <col min="18" max="18" width="4.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="3.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.21666666666667" style="16" customWidth="1"/>
-    <col min="21" max="21" width="57.4416666666667" style="17" customWidth="1"/>
-    <col min="22" max="22" width="8.33333333333333" style="15" customWidth="1"/>
-    <col min="23" max="23" width="30.1083333333333" style="15" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.21875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="57.44140625" style="17" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="30.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="36" customHeight="1" spans="1:23">
+    <row r="1" spans="1:23" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10085,7 +9584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="31.05" customHeight="1" spans="1:23">
+    <row r="2" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -10140,7 +9639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" ht="31.05" customHeight="1" spans="1:23">
+    <row r="3" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>37</v>
       </c>
@@ -10195,7 +9694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="31.05" customHeight="1" spans="1:23">
+    <row r="4" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>44</v>
       </c>
@@ -10250,7 +9749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="31.05" customHeight="1" spans="1:23">
+    <row r="5" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>53</v>
       </c>
@@ -10305,7 +9804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" ht="31.05" customHeight="1" spans="1:23">
+    <row r="6" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
         <v>59</v>
       </c>
@@ -10360,7 +9859,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" ht="31.05" customHeight="1" spans="1:23">
+    <row r="7" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>65</v>
       </c>
@@ -10414,7 +9913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" ht="31.05" customHeight="1" spans="1:23">
+    <row r="8" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>73</v>
       </c>
@@ -10469,7 +9968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" ht="31.05" customHeight="1" spans="1:23">
+    <row r="9" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>81</v>
       </c>
@@ -10524,7 +10023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" ht="31.05" customHeight="1" spans="1:23">
+    <row r="10" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>87</v>
       </c>
@@ -10579,7 +10078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" ht="31.05" customHeight="1" spans="1:23">
+    <row r="11" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>93</v>
       </c>
@@ -10636,7 +10135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" ht="31.05" customHeight="1" spans="1:23">
+    <row r="12" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>102</v>
       </c>
@@ -10693,7 +10192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" ht="31.05" customHeight="1" spans="1:23">
+    <row r="13" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>110</v>
       </c>
@@ -10748,7 +10247,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" ht="31.05" customHeight="1" spans="1:23">
+    <row r="14" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>118</v>
       </c>
@@ -10805,7 +10304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" ht="31.05" customHeight="1" spans="1:23">
+    <row r="15" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>127</v>
       </c>
@@ -10862,7 +10361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" ht="31.05" customHeight="1" spans="1:23">
+    <row r="16" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>136</v>
       </c>
@@ -10919,7 +10418,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" ht="31.05" customHeight="1" spans="1:23">
+    <row r="17" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>145</v>
       </c>
@@ -10974,7 +10473,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" ht="31.05" customHeight="1" spans="1:23">
+    <row r="18" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>153</v>
       </c>
@@ -11031,7 +10530,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" ht="31.05" customHeight="1" spans="1:23">
+    <row r="19" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>163</v>
       </c>
@@ -11088,7 +10587,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" ht="31.05" customHeight="1" spans="1:23">
+    <row r="20" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>169</v>
       </c>
@@ -11143,7 +10642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" ht="31.05" customHeight="1" spans="1:23">
+    <row r="21" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>177</v>
       </c>
@@ -11200,7 +10699,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" ht="31.05" customHeight="1" spans="1:23">
+    <row r="22" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>186</v>
       </c>
@@ -11257,7 +10756,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" ht="31.05" customHeight="1" spans="1:23">
+    <row r="23" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>192</v>
       </c>
@@ -11314,7 +10813,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" ht="31.05" customHeight="1" spans="1:23">
+    <row r="24" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>198</v>
       </c>
@@ -11371,7 +10870,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" ht="31.05" customHeight="1" spans="1:23">
+    <row r="25" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>204</v>
       </c>
@@ -11426,7 +10925,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" ht="31.05" customHeight="1" spans="1:23">
+    <row r="26" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>212</v>
       </c>
@@ -11481,7 +10980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" ht="31.05" customHeight="1" spans="1:23">
+    <row r="27" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>220</v>
       </c>
@@ -11534,7 +11033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" ht="31.05" customHeight="1" spans="1:23">
+    <row r="28" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>229</v>
       </c>
@@ -11589,7 +11088,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" ht="31.05" customHeight="1" spans="1:23">
+    <row r="29" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>237</v>
       </c>
@@ -11636,7 +11135,7 @@
       <c r="V29" s="31"/>
       <c r="W29" s="31"/>
     </row>
-    <row r="30" ht="31.05" customHeight="1" spans="1:23">
+    <row r="30" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>243</v>
       </c>
@@ -11683,7 +11182,7 @@
       <c r="V30" s="31"/>
       <c r="W30" s="31"/>
     </row>
-    <row r="31" ht="31.05" customHeight="1" spans="1:23">
+    <row r="31" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>247</v>
       </c>
@@ -11730,7 +11229,7 @@
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
     </row>
-    <row r="32" ht="31.05" customHeight="1" spans="1:23">
+    <row r="32" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>251</v>
       </c>
@@ -11785,7 +11284,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" ht="31.05" customHeight="1" spans="1:23">
+    <row r="33" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>259</v>
       </c>
@@ -11840,7 +11339,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" ht="31.05" customHeight="1" spans="1:23">
+    <row r="34" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>267</v>
       </c>
@@ -11895,7 +11394,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" ht="31.05" customHeight="1" spans="1:23">
+    <row r="35" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>275</v>
       </c>
@@ -11942,7 +11441,7 @@
       <c r="V35" s="31"/>
       <c r="W35" s="31"/>
     </row>
-    <row r="36" ht="31.05" customHeight="1" spans="1:23">
+    <row r="36" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>281</v>
       </c>
@@ -11989,7 +11488,7 @@
       <c r="V36" s="31"/>
       <c r="W36" s="31"/>
     </row>
-    <row r="37" ht="31.05" customHeight="1" spans="1:23">
+    <row r="37" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>285</v>
       </c>
@@ -12036,7 +11535,7 @@
       <c r="V37" s="31"/>
       <c r="W37" s="31"/>
     </row>
-    <row r="38" ht="31.05" customHeight="1" spans="1:23">
+    <row r="38" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>289</v>
       </c>
@@ -12091,7 +11590,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" ht="31.05" customHeight="1" spans="1:23">
+    <row r="39" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>297</v>
       </c>
@@ -12148,7 +11647,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" ht="31.05" customHeight="1" spans="1:23">
+    <row r="40" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>306</v>
       </c>
@@ -12191,7 +11690,7 @@
       <c r="V40" s="31"/>
       <c r="W40" s="31"/>
     </row>
-    <row r="41" ht="31.05" customHeight="1" spans="1:23">
+    <row r="41" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>312</v>
       </c>
@@ -12234,7 +11733,7 @@
       <c r="V41" s="31"/>
       <c r="W41" s="31"/>
     </row>
-    <row r="42" ht="31.05" customHeight="1" spans="1:23">
+    <row r="42" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>316</v>
       </c>
@@ -12277,7 +11776,7 @@
       <c r="V42" s="31"/>
       <c r="W42" s="31"/>
     </row>
-    <row r="43" ht="31.05" customHeight="1" spans="1:23">
+    <row r="43" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>320</v>
       </c>
@@ -12320,7 +11819,7 @@
       <c r="V43" s="31"/>
       <c r="W43" s="31"/>
     </row>
-    <row r="44" ht="31.05" customHeight="1" spans="1:23">
+    <row r="44" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>324</v>
       </c>
@@ -12371,7 +11870,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" ht="31.05" customHeight="1" spans="1:23">
+    <row r="45" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>331</v>
       </c>
@@ -12424,7 +11923,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="46" ht="31.05" customHeight="1" spans="1:23">
+    <row r="46" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="46" t="s">
         <v>340</v>
       </c>
@@ -12467,7 +11966,7 @@
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
     </row>
-    <row r="47" ht="31.05" customHeight="1" spans="1:23">
+    <row r="47" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>347</v>
       </c>
@@ -12510,7 +12009,7 @@
       <c r="V47" s="31"/>
       <c r="W47" s="31"/>
     </row>
-    <row r="48" ht="31.05" customHeight="1" spans="1:23">
+    <row r="48" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>351</v>
       </c>
@@ -12553,7 +12052,7 @@
       <c r="V48" s="31"/>
       <c r="W48" s="31"/>
     </row>
-    <row r="49" ht="31.05" customHeight="1" spans="1:23">
+    <row r="49" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>355</v>
       </c>
@@ -12604,7 +12103,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="50" ht="31.05" customHeight="1" spans="1:23">
+    <row r="50" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>363</v>
       </c>
@@ -12655,7 +12154,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="51" ht="31.05" customHeight="1" spans="1:23">
+    <row r="51" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="46" t="s">
         <v>371</v>
       </c>
@@ -12700,7 +12199,7 @@
       <c r="V51" s="31"/>
       <c r="W51" s="31"/>
     </row>
-    <row r="52" ht="31.05" customHeight="1" spans="1:23">
+    <row r="52" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>378</v>
       </c>
@@ -12751,7 +12250,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="53" ht="31.05" customHeight="1" spans="1:23">
+    <row r="53" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>386</v>
       </c>
@@ -12802,7 +12301,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" ht="31.05" customHeight="1" spans="1:23">
+    <row r="54" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>394</v>
       </c>
@@ -12845,7 +12344,7 @@
       <c r="V54" s="31"/>
       <c r="W54" s="31"/>
     </row>
-    <row r="55" ht="31.05" customHeight="1" spans="1:23">
+    <row r="55" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>400</v>
       </c>
@@ -12888,7 +12387,7 @@
       <c r="V55" s="31"/>
       <c r="W55" s="31"/>
     </row>
-    <row r="56" ht="31.05" customHeight="1" spans="1:23">
+    <row r="56" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>406</v>
       </c>
@@ -12931,7 +12430,7 @@
       <c r="V56" s="31"/>
       <c r="W56" s="31"/>
     </row>
-    <row r="57" ht="31.05" customHeight="1" spans="1:23">
+    <row r="57" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>412</v>
       </c>
@@ -12976,7 +12475,7 @@
       <c r="V57" s="31"/>
       <c r="W57" s="31"/>
     </row>
-    <row r="58" ht="31.05" customHeight="1" spans="1:23">
+    <row r="58" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>419</v>
       </c>
@@ -13019,7 +12518,7 @@
       <c r="V58" s="31"/>
       <c r="W58" s="31"/>
     </row>
-    <row r="59" ht="31.05" customHeight="1" spans="1:23">
+    <row r="59" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="46" t="s">
         <v>425</v>
       </c>
@@ -13070,7 +12569,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60" ht="31.05" customHeight="1" spans="1:23">
+    <row r="60" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>433</v>
       </c>
@@ -13113,7 +12612,7 @@
       <c r="V60" s="31"/>
       <c r="W60" s="31"/>
     </row>
-    <row r="61" ht="31.05" customHeight="1" spans="1:23">
+    <row r="61" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>439</v>
       </c>
@@ -13156,7 +12655,7 @@
       <c r="V61" s="31"/>
       <c r="W61" s="31"/>
     </row>
-    <row r="62" ht="31.05" customHeight="1" spans="1:23">
+    <row r="62" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>445</v>
       </c>
@@ -13199,7 +12698,7 @@
       <c r="V62" s="31"/>
       <c r="W62" s="31"/>
     </row>
-    <row r="63" ht="31.05" customHeight="1" spans="1:23">
+    <row r="63" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>449</v>
       </c>
@@ -13242,7 +12741,7 @@
       <c r="V63" s="31"/>
       <c r="W63" s="31"/>
     </row>
-    <row r="64" ht="31.05" customHeight="1" spans="1:23">
+    <row r="64" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>453</v>
       </c>
@@ -13287,7 +12786,7 @@
       <c r="V64" s="31"/>
       <c r="W64" s="31"/>
     </row>
-    <row r="65" ht="31.05" customHeight="1" spans="1:23">
+    <row r="65" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>460</v>
       </c>
@@ -13332,7 +12831,7 @@
       <c r="V65" s="31"/>
       <c r="W65" s="31"/>
     </row>
-    <row r="66" ht="31.05" customHeight="1" spans="1:23">
+    <row r="66" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>464</v>
       </c>
@@ -13377,7 +12876,7 @@
       <c r="V66" s="31"/>
       <c r="W66" s="31"/>
     </row>
-    <row r="67" ht="31.05" customHeight="1" spans="1:23">
+    <row r="67" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>468</v>
       </c>
@@ -13420,7 +12919,7 @@
       <c r="V67" s="31"/>
       <c r="W67" s="31"/>
     </row>
-    <row r="68" ht="31.05" customHeight="1" spans="1:23">
+    <row r="68" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>474</v>
       </c>
@@ -13463,7 +12962,7 @@
       <c r="V68" s="31"/>
       <c r="W68" s="31"/>
     </row>
-    <row r="69" ht="31.05" customHeight="1" spans="1:23">
+    <row r="69" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>478</v>
       </c>
@@ -13506,7 +13005,7 @@
       <c r="V69" s="31"/>
       <c r="W69" s="31"/>
     </row>
-    <row r="70" ht="31.05" customHeight="1" spans="1:23">
+    <row r="70" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>482</v>
       </c>
@@ -13549,7 +13048,7 @@
       <c r="V70" s="31"/>
       <c r="W70" s="31"/>
     </row>
-    <row r="71" ht="31.05" customHeight="1" spans="1:23">
+    <row r="71" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>487</v>
       </c>
@@ -13600,7 +13099,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="72" ht="31.05" customHeight="1" spans="1:23">
+    <row r="72" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
         <v>495</v>
       </c>
@@ -13651,7 +13150,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="73" ht="31.05" customHeight="1" spans="1:23">
+    <row r="73" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
         <v>503</v>
       </c>
@@ -13702,7 +13201,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="74" ht="31.05" customHeight="1" spans="1:23">
+    <row r="74" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
         <v>511</v>
       </c>
@@ -13745,7 +13244,7 @@
       <c r="V74" s="31"/>
       <c r="W74" s="31"/>
     </row>
-    <row r="75" ht="31.05" customHeight="1" spans="1:23">
+    <row r="75" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>516</v>
       </c>
@@ -13788,7 +13287,7 @@
       <c r="V75" s="31"/>
       <c r="W75" s="31"/>
     </row>
-    <row r="76" ht="31.05" customHeight="1" spans="1:23">
+    <row r="76" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>521</v>
       </c>
@@ -13837,7 +13336,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="77" ht="31.05" customHeight="1" spans="1:23">
+    <row r="77" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>529</v>
       </c>
@@ -13884,7 +13383,7 @@
       <c r="V77" s="31"/>
       <c r="W77" s="31"/>
     </row>
-    <row r="78" ht="31.05" customHeight="1" spans="1:23">
+    <row r="78" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
         <v>536</v>
       </c>
@@ -13931,7 +13430,7 @@
       <c r="V78" s="31"/>
       <c r="W78" s="31"/>
     </row>
-    <row r="79" ht="31.05" customHeight="1" spans="1:23">
+    <row r="79" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
         <v>540</v>
       </c>
@@ -13978,7 +13477,7 @@
       <c r="V79" s="31"/>
       <c r="W79" s="31"/>
     </row>
-    <row r="80" ht="31.05" customHeight="1" spans="1:23">
+    <row r="80" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
         <v>544</v>
       </c>
@@ -14025,7 +13524,7 @@
       <c r="V80" s="31"/>
       <c r="W80" s="31"/>
     </row>
-    <row r="81" ht="31.05" customHeight="1" spans="1:23">
+    <row r="81" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
         <v>550</v>
       </c>
@@ -14072,7 +13571,7 @@
       <c r="V81" s="31"/>
       <c r="W81" s="31"/>
     </row>
-    <row r="82" ht="31.05" customHeight="1" spans="1:23">
+    <row r="82" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
         <v>554</v>
       </c>
@@ -14119,7 +13618,7 @@
       <c r="V82" s="31"/>
       <c r="W82" s="31"/>
     </row>
-    <row r="83" ht="31.05" customHeight="1" spans="1:23">
+    <row r="83" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
         <v>558</v>
       </c>
@@ -14172,7 +13671,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="84" ht="31.05" customHeight="1" spans="1:23">
+    <row r="84" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
         <v>563</v>
       </c>
@@ -14223,7 +13722,7 @@
       <c r="V84" s="31"/>
       <c r="W84" s="31"/>
     </row>
-    <row r="85" ht="31.05" customHeight="1" spans="1:23">
+    <row r="85" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
         <v>571</v>
       </c>
@@ -14270,7 +13769,7 @@
       <c r="V85" s="31"/>
       <c r="W85" s="31"/>
     </row>
-    <row r="86" ht="31.05" customHeight="1" spans="1:23">
+    <row r="86" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
         <v>577</v>
       </c>
@@ -14317,7 +13816,7 @@
       <c r="V86" s="31"/>
       <c r="W86" s="31"/>
     </row>
-    <row r="87" ht="31.05" customHeight="1" spans="1:23">
+    <row r="87" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
         <v>581</v>
       </c>
@@ -14364,7 +13863,7 @@
       <c r="V87" s="31"/>
       <c r="W87" s="31"/>
     </row>
-    <row r="88" ht="31.05" customHeight="1" spans="1:23">
+    <row r="88" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
         <v>585</v>
       </c>
@@ -14411,7 +13910,7 @@
       <c r="V88" s="31"/>
       <c r="W88" s="31"/>
     </row>
-    <row r="89" ht="31.05" customHeight="1" spans="1:23">
+    <row r="89" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>591</v>
       </c>
@@ -14458,7 +13957,7 @@
       <c r="V89" s="31"/>
       <c r="W89" s="31"/>
     </row>
-    <row r="90" ht="31.05" customHeight="1" spans="1:23">
+    <row r="90" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>595</v>
       </c>
@@ -14505,7 +14004,7 @@
       <c r="V90" s="31"/>
       <c r="W90" s="31"/>
     </row>
-    <row r="91" ht="31.05" customHeight="1" spans="1:23">
+    <row r="91" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>599</v>
       </c>
@@ -14552,7 +14051,7 @@
       <c r="V91" s="31"/>
       <c r="W91" s="31"/>
     </row>
-    <row r="92" ht="31.05" customHeight="1" spans="1:23">
+    <row r="92" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>603</v>
       </c>
@@ -14599,7 +14098,7 @@
       <c r="V92" s="31"/>
       <c r="W92" s="31"/>
     </row>
-    <row r="93" ht="31.05" customHeight="1" spans="1:23">
+    <row r="93" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>606</v>
       </c>
@@ -14646,7 +14145,7 @@
       <c r="V93" s="31"/>
       <c r="W93" s="31"/>
     </row>
-    <row r="94" ht="31.05" customHeight="1" spans="1:23">
+    <row r="94" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
         <v>609</v>
       </c>
@@ -14695,7 +14194,7 @@
       <c r="V94" s="31"/>
       <c r="W94" s="31"/>
     </row>
-    <row r="95" ht="31.05" customHeight="1" spans="1:23">
+    <row r="95" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
         <v>616</v>
       </c>
@@ -14746,7 +14245,7 @@
       <c r="V95" s="31"/>
       <c r="W95" s="31"/>
     </row>
-    <row r="96" ht="31.05" customHeight="1" spans="1:23">
+    <row r="96" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
         <v>622</v>
       </c>
@@ -14793,7 +14292,7 @@
       <c r="V96" s="31"/>
       <c r="W96" s="31"/>
     </row>
-    <row r="97" ht="31.05" customHeight="1" spans="1:23">
+    <row r="97" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
         <v>628</v>
       </c>
@@ -14840,7 +14339,7 @@
       <c r="V97" s="31"/>
       <c r="W97" s="31"/>
     </row>
-    <row r="98" ht="31.05" customHeight="1" spans="1:23">
+    <row r="98" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
         <v>631</v>
       </c>
@@ -14887,7 +14386,7 @@
       <c r="V98" s="31"/>
       <c r="W98" s="31"/>
     </row>
-    <row r="99" ht="31.05" customHeight="1" spans="1:23">
+    <row r="99" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
         <v>635</v>
       </c>
@@ -14938,7 +14437,7 @@
       <c r="V99" s="31"/>
       <c r="W99" s="31"/>
     </row>
-    <row r="100" ht="31.05" customHeight="1" spans="1:23">
+    <row r="100" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
         <v>643</v>
       </c>
@@ -14987,7 +14486,7 @@
       <c r="V100" s="31"/>
       <c r="W100" s="31"/>
     </row>
-    <row r="101" ht="31.05" customHeight="1" spans="1:23">
+    <row r="101" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
         <v>648</v>
       </c>
@@ -15038,7 +14537,7 @@
       <c r="V101" s="31"/>
       <c r="W101" s="31"/>
     </row>
-    <row r="102" ht="31.05" customHeight="1" spans="1:23">
+    <row r="102" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="37" t="s">
         <v>653</v>
       </c>
@@ -15085,7 +14584,7 @@
       <c r="V102" s="31"/>
       <c r="W102" s="31"/>
     </row>
-    <row r="103" ht="31.05" customHeight="1" spans="1:23">
+    <row r="103" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="37" t="s">
         <v>657</v>
       </c>
@@ -15134,7 +14633,7 @@
       <c r="V103" s="31"/>
       <c r="W103" s="31"/>
     </row>
-    <row r="104" ht="31.05" customHeight="1" spans="1:23">
+    <row r="104" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
         <v>661</v>
       </c>
@@ -15185,7 +14684,7 @@
       <c r="V104" s="31"/>
       <c r="W104" s="31"/>
     </row>
-    <row r="105" ht="31.05" customHeight="1" spans="1:23">
+    <row r="105" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
         <v>664</v>
       </c>
@@ -15232,7 +14731,7 @@
       <c r="V105" s="31"/>
       <c r="W105" s="31"/>
     </row>
-    <row r="106" ht="31.05" customHeight="1" spans="1:23">
+    <row r="106" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
         <v>670</v>
       </c>
@@ -15279,7 +14778,7 @@
       <c r="V106" s="31"/>
       <c r="W106" s="31"/>
     </row>
-    <row r="107" ht="31.05" customHeight="1" spans="1:23">
+    <row r="107" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
         <v>674</v>
       </c>
@@ -15326,7 +14825,7 @@
       <c r="V107" s="31"/>
       <c r="W107" s="31"/>
     </row>
-    <row r="108" ht="31.05" customHeight="1" spans="1:23">
+    <row r="108" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
         <v>678</v>
       </c>
@@ -15373,7 +14872,7 @@
       <c r="V108" s="31"/>
       <c r="W108" s="31"/>
     </row>
-    <row r="109" ht="31.05" customHeight="1" spans="1:23">
+    <row r="109" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="37" t="s">
         <v>684</v>
       </c>
@@ -15420,7 +14919,7 @@
       <c r="V109" s="31"/>
       <c r="W109" s="31"/>
     </row>
-    <row r="110" ht="31.05" customHeight="1" spans="1:23">
+    <row r="110" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
         <v>688</v>
       </c>
@@ -15467,7 +14966,7 @@
       <c r="V110" s="31"/>
       <c r="W110" s="31"/>
     </row>
-    <row r="111" ht="31.05" customHeight="1" spans="1:23">
+    <row r="111" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
         <v>692</v>
       </c>
@@ -15514,7 +15013,7 @@
       <c r="V111" s="31"/>
       <c r="W111" s="31"/>
     </row>
-    <row r="112" ht="31.05" customHeight="1" spans="1:23">
+    <row r="112" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
         <v>698</v>
       </c>
@@ -15561,7 +15060,7 @@
       <c r="V112" s="31"/>
       <c r="W112" s="31"/>
     </row>
-    <row r="113" ht="31.05" customHeight="1" spans="1:23">
+    <row r="113" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
         <v>702</v>
       </c>
@@ -15608,7 +15107,7 @@
       <c r="V113" s="31"/>
       <c r="W113" s="31"/>
     </row>
-    <row r="114" ht="31.05" customHeight="1" spans="1:23">
+    <row r="114" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
         <v>706</v>
       </c>
@@ -15655,7 +15154,7 @@
       <c r="V114" s="31"/>
       <c r="W114" s="31"/>
     </row>
-    <row r="115" ht="31.05" customHeight="1" spans="1:23">
+    <row r="115" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
         <v>711</v>
       </c>
@@ -15702,7 +15201,7 @@
       <c r="V115" s="31"/>
       <c r="W115" s="31"/>
     </row>
-    <row r="116" ht="31.05" customHeight="1" spans="1:23">
+    <row r="116" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
         <v>714</v>
       </c>
@@ -15749,7 +15248,7 @@
       <c r="V116" s="31"/>
       <c r="W116" s="31"/>
     </row>
-    <row r="117" ht="31.05" customHeight="1" spans="1:23">
+    <row r="117" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
         <v>717</v>
       </c>
@@ -15798,7 +15297,7 @@
       <c r="V117" s="31"/>
       <c r="W117" s="31"/>
     </row>
-    <row r="118" ht="31.05" customHeight="1" spans="1:23">
+    <row r="118" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="38" t="s">
         <v>722</v>
       </c>
@@ -15845,7 +15344,7 @@
       <c r="V118" s="31"/>
       <c r="W118" s="31"/>
     </row>
-    <row r="119" ht="31.05" customHeight="1" spans="1:23">
+    <row r="119" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="38" t="s">
         <v>725</v>
       </c>
@@ -15894,7 +15393,7 @@
       <c r="V119" s="31"/>
       <c r="W119" s="31"/>
     </row>
-    <row r="120" ht="31.05" customHeight="1" spans="1:23">
+    <row r="120" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="48" t="s">
         <v>732</v>
       </c>
@@ -15943,7 +15442,7 @@
       <c r="V120" s="31"/>
       <c r="W120" s="31"/>
     </row>
-    <row r="121" ht="31.05" customHeight="1" spans="1:23">
+    <row r="121" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="38" t="s">
         <v>736</v>
       </c>
@@ -15990,7 +15489,7 @@
       <c r="V121" s="31"/>
       <c r="W121" s="31"/>
     </row>
-    <row r="122" ht="31.05" customHeight="1" spans="1:23">
+    <row r="122" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">
         <v>742</v>
       </c>
@@ -16037,7 +15536,7 @@
       <c r="V122" s="31"/>
       <c r="W122" s="31"/>
     </row>
-    <row r="123" ht="31.05" customHeight="1" spans="1:23">
+    <row r="123" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
         <v>746</v>
       </c>
@@ -16084,7 +15583,7 @@
       <c r="V123" s="31"/>
       <c r="W123" s="31"/>
     </row>
-    <row r="124" ht="31.05" customHeight="1" spans="1:23">
+    <row r="124" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
         <v>750</v>
       </c>
@@ -16131,7 +15630,7 @@
       <c r="V124" s="31"/>
       <c r="W124" s="31"/>
     </row>
-    <row r="125" ht="31.05" customHeight="1" spans="1:23">
+    <row r="125" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
         <v>756</v>
       </c>
@@ -16178,7 +15677,7 @@
       <c r="V125" s="31"/>
       <c r="W125" s="31"/>
     </row>
-    <row r="126" ht="31.05" customHeight="1" spans="1:23">
+    <row r="126" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
         <v>760</v>
       </c>
@@ -16225,7 +15724,7 @@
       <c r="V126" s="31"/>
       <c r="W126" s="31"/>
     </row>
-    <row r="127" ht="31.05" customHeight="1" spans="1:23">
+    <row r="127" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="48" t="s">
         <v>764</v>
       </c>
@@ -16272,7 +15771,7 @@
       <c r="V127" s="31"/>
       <c r="W127" s="31"/>
     </row>
-    <row r="128" ht="31.05" customHeight="1" spans="1:23">
+    <row r="128" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="38" t="s">
         <v>768</v>
       </c>
@@ -16319,7 +15818,7 @@
       <c r="V128" s="31"/>
       <c r="W128" s="31"/>
     </row>
-    <row r="129" ht="31.05" customHeight="1" spans="1:23">
+    <row r="129" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="38" t="s">
         <v>771</v>
       </c>
@@ -16366,7 +15865,7 @@
       <c r="V129" s="31"/>
       <c r="W129" s="31"/>
     </row>
-    <row r="130" ht="31.05" customHeight="1" spans="1:23">
+    <row r="130" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="38" t="s">
         <v>774</v>
       </c>
@@ -16413,7 +15912,7 @@
       <c r="V130" s="31"/>
       <c r="W130" s="31"/>
     </row>
-    <row r="131" ht="31.05" customHeight="1" spans="1:23">
+    <row r="131" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38" t="s">
         <v>780</v>
       </c>
@@ -16460,7 +15959,7 @@
       <c r="V131" s="31"/>
       <c r="W131" s="31"/>
     </row>
-    <row r="132" ht="31.05" customHeight="1" spans="1:23">
+    <row r="132" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="38" t="s">
         <v>784</v>
       </c>
@@ -16507,7 +16006,7 @@
       <c r="V132" s="31"/>
       <c r="W132" s="31"/>
     </row>
-    <row r="133" ht="31.05" customHeight="1" spans="1:23">
+    <row r="133" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="38" t="s">
         <v>788</v>
       </c>
@@ -16556,7 +16055,7 @@
       <c r="V133" s="31"/>
       <c r="W133" s="31"/>
     </row>
-    <row r="134" ht="31.05" customHeight="1" spans="1:23">
+    <row r="134" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="38" t="s">
         <v>792</v>
       </c>
@@ -16599,7 +16098,7 @@
       <c r="V134" s="31"/>
       <c r="W134" s="31"/>
     </row>
-    <row r="135" ht="31.05" customHeight="1" spans="1:23">
+    <row r="135" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
         <v>798</v>
       </c>
@@ -16642,7 +16141,7 @@
       <c r="V135" s="31"/>
       <c r="W135" s="31"/>
     </row>
-    <row r="136" ht="31.05" customHeight="1" spans="1:23">
+    <row r="136" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="38" t="s">
         <v>802</v>
       </c>
@@ -16685,7 +16184,7 @@
       <c r="V136" s="31"/>
       <c r="W136" s="31"/>
     </row>
-    <row r="137" ht="31.05" customHeight="1" spans="1:23">
+    <row r="137" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
         <v>806</v>
       </c>
@@ -16732,7 +16231,7 @@
       <c r="V137" s="31"/>
       <c r="W137" s="31"/>
     </row>
-    <row r="138" ht="31.05" customHeight="1" spans="1:23">
+    <row r="138" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="38" t="s">
         <v>810</v>
       </c>
@@ -16781,7 +16280,7 @@
       <c r="V138" s="31"/>
       <c r="W138" s="31"/>
     </row>
-    <row r="139" ht="31.05" customHeight="1" spans="1:23">
+    <row r="139" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
         <v>814</v>
       </c>
@@ -16824,7 +16323,7 @@
       <c r="V139" s="31"/>
       <c r="W139" s="31"/>
     </row>
-    <row r="140" ht="31.05" customHeight="1" spans="1:23">
+    <row r="140" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="38" t="s">
         <v>818</v>
       </c>
@@ -16867,7 +16366,7 @@
       <c r="V140" s="31"/>
       <c r="W140" s="31"/>
     </row>
-    <row r="141" ht="31.05" customHeight="1" spans="1:23">
+    <row r="141" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="38" t="s">
         <v>821</v>
       </c>
@@ -16910,7 +16409,7 @@
       <c r="V141" s="31"/>
       <c r="W141" s="31"/>
     </row>
-    <row r="142" ht="31.05" customHeight="1" spans="1:23">
+    <row r="142" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
         <v>824</v>
       </c>
@@ -16955,7 +16454,7 @@
       <c r="V142" s="31"/>
       <c r="W142" s="31"/>
     </row>
-    <row r="143" ht="31.05" customHeight="1" spans="1:23">
+    <row r="143" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
         <v>831</v>
       </c>
@@ -16997,7 +16496,7 @@
       <c r="V143" s="31"/>
       <c r="W143" s="31"/>
     </row>
-    <row r="144" ht="31.05" customHeight="1" spans="1:23">
+    <row r="144" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="38" t="s">
         <v>834</v>
       </c>
@@ -17040,7 +16539,7 @@
       <c r="V144" s="31"/>
       <c r="W144" s="31"/>
     </row>
-    <row r="145" ht="31.05" customHeight="1" spans="1:23">
+    <row r="145" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
         <v>840</v>
       </c>
@@ -17083,7 +16582,7 @@
       <c r="V145" s="31"/>
       <c r="W145" s="31"/>
     </row>
-    <row r="146" ht="31.05" customHeight="1" spans="1:23">
+    <row r="146" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
         <v>844</v>
       </c>
@@ -17128,7 +16627,7 @@
       <c r="V146" s="31"/>
       <c r="W146" s="31"/>
     </row>
-    <row r="147" ht="31.05" customHeight="1" spans="1:23">
+    <row r="147" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>851</v>
       </c>
@@ -17171,7 +16670,7 @@
       <c r="V147" s="31"/>
       <c r="W147" s="31"/>
     </row>
-    <row r="148" ht="31.05" customHeight="1" spans="1:23">
+    <row r="148" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="38" t="s">
         <v>857</v>
       </c>
@@ -17214,7 +16713,7 @@
       <c r="V148" s="31"/>
       <c r="W148" s="31"/>
     </row>
-    <row r="149" ht="31.05" customHeight="1" spans="1:23">
+    <row r="149" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="38" t="s">
         <v>861</v>
       </c>
@@ -17257,7 +16756,7 @@
       <c r="V149" s="31"/>
       <c r="W149" s="31"/>
     </row>
-    <row r="150" ht="31.05" customHeight="1" spans="1:23">
+    <row r="150" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="38" t="s">
         <v>865</v>
       </c>
@@ -17302,7 +16801,7 @@
       <c r="V150" s="31"/>
       <c r="W150" s="31"/>
     </row>
-    <row r="151" ht="31.05" customHeight="1" spans="1:23">
+    <row r="151" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>872</v>
       </c>
@@ -17349,7 +16848,7 @@
       <c r="V151" s="31"/>
       <c r="W151" s="31"/>
     </row>
-    <row r="152" ht="31.05" customHeight="1" spans="1:23">
+    <row r="152" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="38" t="s">
         <v>876</v>
       </c>
@@ -17392,7 +16891,7 @@
       <c r="V152" s="31"/>
       <c r="W152" s="31"/>
     </row>
-    <row r="153" ht="31.05" customHeight="1" spans="1:23">
+    <row r="153" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="38" t="s">
         <v>882</v>
       </c>
@@ -17435,7 +16934,7 @@
       <c r="V153" s="31"/>
       <c r="W153" s="31"/>
     </row>
-    <row r="154" ht="31.05" customHeight="1" spans="1:23">
+    <row r="154" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="38" t="s">
         <v>886</v>
       </c>
@@ -17478,7 +16977,7 @@
       <c r="V154" s="31"/>
       <c r="W154" s="31"/>
     </row>
-    <row r="155" ht="31.05" customHeight="1" spans="1:23">
+    <row r="155" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="42" t="s">
         <v>890</v>
       </c>
@@ -17527,7 +17026,7 @@
       <c r="V155" s="31"/>
       <c r="W155" s="31"/>
     </row>
-    <row r="156" ht="31.05" customHeight="1" spans="1:23">
+    <row r="156" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="42" t="s">
         <v>897</v>
       </c>
@@ -17576,7 +17075,7 @@
       <c r="V156" s="31"/>
       <c r="W156" s="31"/>
     </row>
-    <row r="157" ht="31.05" customHeight="1" spans="1:23">
+    <row r="157" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="42" t="s">
         <v>901</v>
       </c>
@@ -17623,7 +17122,7 @@
       <c r="V157" s="31"/>
       <c r="W157" s="31"/>
     </row>
-    <row r="158" ht="31.05" customHeight="1" spans="1:23">
+    <row r="158" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="42" t="s">
         <v>907</v>
       </c>
@@ -17670,7 +17169,7 @@
       <c r="V158" s="31"/>
       <c r="W158" s="31"/>
     </row>
-    <row r="159" ht="31.05" customHeight="1" spans="1:23">
+    <row r="159" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="42" t="s">
         <v>911</v>
       </c>
@@ -17717,7 +17216,7 @@
       <c r="V159" s="31"/>
       <c r="W159" s="31"/>
     </row>
-    <row r="160" ht="31.05" customHeight="1" spans="1:23">
+    <row r="160" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="42" t="s">
         <v>915</v>
       </c>
@@ -17768,7 +17267,7 @@
       <c r="V160" s="31"/>
       <c r="W160" s="31"/>
     </row>
-    <row r="161" ht="31.05" customHeight="1" spans="1:23">
+    <row r="161" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="42" t="s">
         <v>919</v>
       </c>
@@ -17815,7 +17314,7 @@
       <c r="V161" s="31"/>
       <c r="W161" s="31"/>
     </row>
-    <row r="162" ht="31.05" customHeight="1" spans="1:23">
+    <row r="162" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="42" t="s">
         <v>922</v>
       </c>
@@ -17864,7 +17363,7 @@
       <c r="V162" s="31"/>
       <c r="W162" s="31"/>
     </row>
-    <row r="163" ht="31.05" customHeight="1" spans="1:23">
+    <row r="163" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="42" t="s">
         <v>926</v>
       </c>
@@ -17911,7 +17410,7 @@
       <c r="V163" s="31"/>
       <c r="W163" s="31"/>
     </row>
-    <row r="164" ht="31.05" customHeight="1" spans="1:23">
+    <row r="164" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
         <v>929</v>
       </c>
@@ -17962,7 +17461,7 @@
       <c r="V164" s="31"/>
       <c r="W164" s="31"/>
     </row>
-    <row r="165" ht="31.05" customHeight="1" spans="1:23">
+    <row r="165" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="42" t="s">
         <v>937</v>
       </c>
@@ -18009,7 +17508,7 @@
       <c r="V165" s="31"/>
       <c r="W165" s="31"/>
     </row>
-    <row r="166" ht="31.05" customHeight="1" spans="1:23">
+    <row r="166" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="42" t="s">
         <v>942</v>
       </c>
@@ -18056,7 +17555,7 @@
       <c r="V166" s="31"/>
       <c r="W166" s="31"/>
     </row>
-    <row r="167" ht="31.05" customHeight="1" spans="1:23">
+    <row r="167" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="42" t="s">
         <v>945</v>
       </c>
@@ -18103,7 +17602,7 @@
       <c r="V167" s="31"/>
       <c r="W167" s="31"/>
     </row>
-    <row r="168" ht="31.05" customHeight="1" spans="1:23">
+    <row r="168" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="42" t="s">
         <v>949</v>
       </c>
@@ -18150,7 +17649,7 @@
       <c r="V168" s="31"/>
       <c r="W168" s="31"/>
     </row>
-    <row r="169" ht="31.05" customHeight="1" spans="1:23">
+    <row r="169" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="42" t="s">
         <v>955</v>
       </c>
@@ -18197,7 +17696,7 @@
       <c r="V169" s="31"/>
       <c r="W169" s="31"/>
     </row>
-    <row r="170" ht="31.05" customHeight="1" spans="1:23">
+    <row r="170" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="42" t="s">
         <v>959</v>
       </c>
@@ -18246,7 +17745,7 @@
       <c r="V170" s="31"/>
       <c r="W170" s="31"/>
     </row>
-    <row r="171" ht="31.05" customHeight="1" spans="1:23">
+    <row r="171" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="42" t="s">
         <v>963</v>
       </c>
@@ -18293,7 +17792,7 @@
       <c r="V171" s="31"/>
       <c r="W171" s="31"/>
     </row>
-    <row r="172" ht="31.05" customHeight="1" spans="1:23">
+    <row r="172" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="49" t="s">
         <v>967</v>
       </c>
@@ -18340,7 +17839,7 @@
       <c r="V172" s="31"/>
       <c r="W172" s="31"/>
     </row>
-    <row r="173" ht="31.05" customHeight="1" spans="1:23">
+    <row r="173" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="42" t="s">
         <v>970</v>
       </c>
@@ -18389,7 +17888,7 @@
       <c r="V173" s="31"/>
       <c r="W173" s="31"/>
     </row>
-    <row r="174" ht="31.05" customHeight="1" spans="1:23">
+    <row r="174" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
         <v>977</v>
       </c>
@@ -18436,7 +17935,7 @@
       <c r="V174" s="31"/>
       <c r="W174" s="31"/>
     </row>
-    <row r="175" ht="31.05" customHeight="1" spans="1:23">
+    <row r="175" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="42" t="s">
         <v>981</v>
       </c>
@@ -18483,7 +17982,7 @@
       <c r="V175" s="31"/>
       <c r="W175" s="31"/>
     </row>
-    <row r="176" ht="31.05" customHeight="1" spans="1:23">
+    <row r="176" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="42" t="s">
         <v>984</v>
       </c>
@@ -18530,7 +18029,7 @@
       <c r="V176" s="31"/>
       <c r="W176" s="31"/>
     </row>
-    <row r="177" ht="31.05" customHeight="1" spans="1:23">
+    <row r="177" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="42" t="s">
         <v>987</v>
       </c>
@@ -18577,7 +18076,7 @@
       <c r="V177" s="31"/>
       <c r="W177" s="31"/>
     </row>
-    <row r="178" ht="31.05" customHeight="1" spans="1:23">
+    <row r="178" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="42" t="s">
         <v>993</v>
       </c>
@@ -18624,7 +18123,7 @@
       <c r="V178" s="31"/>
       <c r="W178" s="31"/>
     </row>
-    <row r="179" ht="31.05" customHeight="1" spans="1:23">
+    <row r="179" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="42" t="s">
         <v>997</v>
       </c>
@@ -18671,7 +18170,7 @@
       <c r="V179" s="31"/>
       <c r="W179" s="31"/>
     </row>
-    <row r="180" ht="31.05" customHeight="1" spans="1:23">
+    <row r="180" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="42" t="s">
         <v>1001</v>
       </c>
@@ -18718,7 +18217,7 @@
       <c r="V180" s="31"/>
       <c r="W180" s="31"/>
     </row>
-    <row r="181" ht="31.05" customHeight="1" spans="1:23">
+    <row r="181" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="42" t="s">
         <v>1007</v>
       </c>
@@ -18765,7 +18264,7 @@
       <c r="V181" s="31"/>
       <c r="W181" s="31"/>
     </row>
-    <row r="182" ht="31.05" customHeight="1" spans="1:23">
+    <row r="182" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="42" t="s">
         <v>1011</v>
       </c>
@@ -18812,7 +18311,7 @@
       <c r="V182" s="31"/>
       <c r="W182" s="31"/>
     </row>
-    <row r="183" ht="31.05" customHeight="1" spans="1:23">
+    <row r="183" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="42" t="s">
         <v>1015</v>
       </c>
@@ -18859,7 +18358,7 @@
       <c r="V183" s="31"/>
       <c r="W183" s="31"/>
     </row>
-    <row r="184" ht="31.05" customHeight="1" spans="1:23">
+    <row r="184" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
         <v>1021</v>
       </c>
@@ -18906,7 +18405,7 @@
       <c r="V184" s="31"/>
       <c r="W184" s="31"/>
     </row>
-    <row r="185" ht="31.05" customHeight="1" spans="1:23">
+    <row r="185" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="42" t="s">
         <v>1025</v>
       </c>
@@ -18953,7 +18452,7 @@
       <c r="V185" s="31"/>
       <c r="W185" s="31"/>
     </row>
-    <row r="186" ht="31.05" customHeight="1" spans="1:23">
+    <row r="186" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="42" t="s">
         <v>1029</v>
       </c>
@@ -19000,7 +18499,7 @@
       <c r="V186" s="31"/>
       <c r="W186" s="31"/>
     </row>
-    <row r="187" ht="31.05" customHeight="1" spans="1:23">
+    <row r="187" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="42" t="s">
         <v>1035</v>
       </c>
@@ -19047,7 +18546,7 @@
       <c r="V187" s="31"/>
       <c r="W187" s="31"/>
     </row>
-    <row r="188" ht="31.05" customHeight="1" spans="1:23">
+    <row r="188" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="42" t="s">
         <v>1039</v>
       </c>
@@ -19094,7 +18593,7 @@
       <c r="V188" s="31"/>
       <c r="W188" s="31"/>
     </row>
-    <row r="189" ht="31.05" customHeight="1" spans="1:23">
+    <row r="189" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="42" t="s">
         <v>1043</v>
       </c>
@@ -19141,7 +18640,7 @@
       <c r="V189" s="31"/>
       <c r="W189" s="31"/>
     </row>
-    <row r="190" ht="31.05" customHeight="1" spans="1:23">
+    <row r="190" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="42" t="s">
         <v>1046</v>
       </c>
@@ -19190,7 +18689,7 @@
       <c r="V190" s="31"/>
       <c r="W190" s="31"/>
     </row>
-    <row r="191" ht="31.05" customHeight="1" spans="1:23">
+    <row r="191" spans="1:23" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="43" t="s">
         <v>1050</v>
       </c>
@@ -19240,32 +18739,29 @@
       <c r="W191" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W191">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:W191"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.4416666666667" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="24" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>1054</v>
       </c>
@@ -19273,7 +18769,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1056</v>
       </c>
@@ -19281,7 +18777,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>1058</v>
       </c>
@@ -19289,7 +18785,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>1059</v>
       </c>
@@ -19297,7 +18793,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1061</v>
       </c>
@@ -19305,7 +18801,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1062</v>
       </c>
@@ -19313,7 +18809,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1063</v>
       </c>
@@ -19321,7 +18817,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>1064</v>
       </c>
@@ -19329,7 +18825,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1065</v>
       </c>
@@ -19337,7 +18833,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>1066</v>
       </c>
@@ -19345,7 +18841,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>1067</v>
       </c>
@@ -19353,7 +18849,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>1068</v>
       </c>
@@ -19361,7 +18857,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>1070</v>
       </c>
@@ -19369,7 +18865,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>1072</v>
       </c>
@@ -19377,7 +18873,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1073</v>
       </c>
@@ -19385,7 +18881,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>1074</v>
       </c>
@@ -19393,7 +18889,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>1076</v>
       </c>
@@ -19401,7 +18897,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>1077</v>
       </c>
@@ -19409,7 +18905,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>1078</v>
       </c>
@@ -19417,7 +18913,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>1080</v>
       </c>
@@ -19425,7 +18921,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>1081</v>
       </c>
@@ -19433,7 +18929,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>1082</v>
       </c>
@@ -19441,7 +18937,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>1084</v>
       </c>
@@ -19449,7 +18945,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>1085</v>
       </c>
@@ -19457,7 +18953,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>1086</v>
       </c>
@@ -19465,7 +18961,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>1087</v>
       </c>
@@ -19473,7 +18969,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>1089</v>
       </c>
@@ -19481,7 +18977,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>1090</v>
       </c>
@@ -19489,7 +18985,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>1091</v>
       </c>
@@ -19497,7 +18993,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>1092</v>
       </c>
@@ -19505,7 +19001,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>1093</v>
       </c>
@@ -19513,7 +19009,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>1095</v>
       </c>
@@ -19521,7 +19017,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>1096</v>
       </c>
@@ -19529,7 +19025,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>1097</v>
       </c>
@@ -19537,7 +19033,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>1098</v>
       </c>
@@ -19545,7 +19041,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>1099</v>
       </c>
@@ -19553,7 +19049,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>1100</v>
       </c>
@@ -19561,7 +19057,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>1101</v>
       </c>
@@ -19569,7 +19065,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>1102</v>
       </c>
@@ -19577,7 +19073,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>1103</v>
       </c>
@@ -19585,7 +19081,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>1104</v>
       </c>
@@ -19593,7 +19089,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>1105</v>
       </c>
@@ -19601,7 +19097,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>1106</v>
       </c>
@@ -19609,7 +19105,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>1107</v>
       </c>
@@ -19617,7 +19113,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>1108</v>
       </c>
@@ -19626,32 +19122,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="49.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="5.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1109</v>
       </c>
@@ -19674,126 +19170,129 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="243" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" s="50" customFormat="1" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="50" customFormat="1" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C3" s="51" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>1117</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="51" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="243" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:7" s="50" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="51" t="s">
         <v>1119</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="51" t="s">
         <v>1120</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E4" s="51" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="243" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:7" s="50" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="51" t="s">
         <v>1122</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="51" t="s">
         <v>1123</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="51" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="256.5" spans="1:5">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:7" s="50" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="51" t="s">
         <v>1125</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="51" t="s">
         <v>1126</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="51" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="256.5" spans="1:5">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:7" s="50" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="51" t="s">
         <v>1128</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="51" t="s">
         <v>1129</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="51" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="256.5" spans="1:5">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:7" s="50" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B8" s="50" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>1131</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="51" t="s">
         <v>1132</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="51" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="256.5" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="189" spans="1:5">
+    <row r="9" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>324</v>
       </c>
@@ -19801,16 +19300,16 @@
         <v>327</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>324</v>
       </c>
@@ -19818,16 +19317,16 @@
         <v>327</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>324</v>
       </c>
@@ -19835,16 +19334,16 @@
         <v>327</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>324</v>
       </c>
@@ -19852,16 +19351,16 @@
         <v>327</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>324</v>
       </c>
@@ -19869,16 +19368,16 @@
         <v>327</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1147</v>
+        <v>1648</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="216" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>331</v>
       </c>
@@ -19886,16 +19385,16 @@
         <v>334</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>331</v>
       </c>
@@ -19903,16 +19402,16 @@
         <v>334</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="216" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>331</v>
       </c>
@@ -19920,16 +19419,16 @@
         <v>334</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>331</v>
       </c>
@@ -19937,16 +19436,16 @@
         <v>334</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>331</v>
       </c>
@@ -19954,16 +19453,16 @@
         <v>334</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>347</v>
       </c>
@@ -19971,16 +19470,16 @@
         <v>349</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>347</v>
       </c>
@@ -19988,16 +19487,16 @@
         <v>349</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>347</v>
       </c>
@@ -20005,16 +19504,16 @@
         <v>349</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>347</v>
       </c>
@@ -20022,16 +19521,16 @@
         <v>349</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>347</v>
       </c>
@@ -20039,16 +19538,16 @@
         <v>349</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>347</v>
       </c>
@@ -20056,16 +19555,16 @@
         <v>349</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>347</v>
       </c>
@@ -20073,16 +19572,16 @@
         <v>349</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>355</v>
       </c>
@@ -20090,16 +19589,16 @@
         <v>358</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>355</v>
       </c>
@@ -20107,16 +19606,16 @@
         <v>358</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>355</v>
       </c>
@@ -20124,16 +19623,16 @@
         <v>358</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>355</v>
       </c>
@@ -20141,16 +19640,16 @@
         <v>358</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>355</v>
       </c>
@@ -20158,16 +19657,16 @@
         <v>358</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>363</v>
       </c>
@@ -20178,13 +19677,13 @@
         <v>367</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>363</v>
       </c>
@@ -20195,13 +19694,13 @@
         <v>367</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>363</v>
       </c>
@@ -20209,16 +19708,16 @@
         <v>366</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>363</v>
       </c>
@@ -20226,16 +19725,16 @@
         <v>366</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>363</v>
       </c>
@@ -20243,16 +19742,16 @@
         <v>366</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>371</v>
       </c>
@@ -20263,13 +19762,13 @@
         <v>375</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>371</v>
       </c>
@@ -20280,13 +19779,13 @@
         <v>375</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>371</v>
       </c>
@@ -20297,13 +19796,13 @@
         <v>375</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>371</v>
       </c>
@@ -20314,13 +19813,13 @@
         <v>375</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>371</v>
       </c>
@@ -20331,13 +19830,13 @@
         <v>375</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>371</v>
       </c>
@@ -20348,13 +19847,13 @@
         <v>375</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>371</v>
       </c>
@@ -20365,13 +19864,13 @@
         <v>375</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>378</v>
       </c>
@@ -20382,13 +19881,13 @@
         <v>382</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>378</v>
       </c>
@@ -20399,13 +19898,13 @@
         <v>382</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>378</v>
       </c>
@@ -20416,13 +19915,13 @@
         <v>382</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>378</v>
       </c>
@@ -20433,13 +19932,13 @@
         <v>382</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>394</v>
       </c>
@@ -20450,13 +19949,13 @@
         <v>398</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>394</v>
       </c>
@@ -20464,16 +19963,16 @@
         <v>397</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>394</v>
       </c>
@@ -20481,16 +19980,16 @@
         <v>397</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>394</v>
       </c>
@@ -20498,16 +19997,16 @@
         <v>397</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>394</v>
       </c>
@@ -20515,16 +20014,16 @@
         <v>397</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>394</v>
       </c>
@@ -20532,16 +20031,16 @@
         <v>397</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>394</v>
       </c>
@@ -20549,16 +20048,16 @@
         <v>397</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>400</v>
       </c>
@@ -20566,16 +20065,16 @@
         <v>403</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="216" spans="1:8">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>400</v>
       </c>
@@ -20583,17 +20082,17 @@
         <v>403</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="216" spans="1:5">
+    <row r="56" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>400</v>
       </c>
@@ -20601,16 +20100,16 @@
         <v>403</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>400</v>
       </c>
@@ -20618,16 +20117,16 @@
         <v>403</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>400</v>
       </c>
@@ -20635,16 +20134,16 @@
         <v>403</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="59" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>400</v>
       </c>
@@ -20652,16 +20151,16 @@
         <v>403</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="60" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>400</v>
       </c>
@@ -20669,16 +20168,16 @@
         <v>403</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>400</v>
       </c>
@@ -20686,16 +20185,16 @@
         <v>403</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>406</v>
       </c>
@@ -20703,16 +20202,16 @@
         <v>409</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>406</v>
       </c>
@@ -20720,16 +20219,16 @@
         <v>409</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="216" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>406</v>
       </c>
@@ -20737,16 +20236,16 @@
         <v>409</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>406</v>
       </c>
@@ -20754,16 +20253,16 @@
         <v>409</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>406</v>
       </c>
@@ -20771,16 +20270,16 @@
         <v>409</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>406</v>
       </c>
@@ -20788,16 +20287,16 @@
         <v>409</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>406</v>
       </c>
@@ -20805,16 +20304,16 @@
         <v>409</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>412</v>
       </c>
@@ -20825,13 +20324,13 @@
         <v>416</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>412</v>
       </c>
@@ -20839,16 +20338,16 @@
         <v>415</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>412</v>
       </c>
@@ -20856,16 +20355,16 @@
         <v>415</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>412</v>
       </c>
@@ -20873,16 +20372,16 @@
         <v>415</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="73" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>412</v>
       </c>
@@ -20890,16 +20389,16 @@
         <v>415</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>412</v>
       </c>
@@ -20907,16 +20406,16 @@
         <v>415</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="75" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>419</v>
       </c>
@@ -20927,13 +20426,13 @@
         <v>423</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>419</v>
       </c>
@@ -20941,16 +20440,16 @@
         <v>422</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="77" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>419</v>
       </c>
@@ -20958,16 +20457,16 @@
         <v>422</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>419</v>
       </c>
@@ -20975,16 +20474,16 @@
         <v>422</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>419</v>
       </c>
@@ -20992,16 +20491,16 @@
         <v>422</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="1" ht="216" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>419</v>
       </c>
@@ -21009,16 +20508,16 @@
         <v>422</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>425</v>
       </c>
@@ -21029,13 +20528,13 @@
         <v>429</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>425</v>
       </c>
@@ -21043,16 +20542,16 @@
         <v>428</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>425</v>
       </c>
@@ -21060,16 +20559,16 @@
         <v>428</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>425</v>
       </c>
@@ -21077,16 +20576,16 @@
         <v>428</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>433</v>
       </c>
@@ -21097,13 +20596,13 @@
         <v>437</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>433</v>
       </c>
@@ -21111,16 +20610,16 @@
         <v>436</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>433</v>
       </c>
@@ -21128,16 +20627,16 @@
         <v>436</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>433</v>
       </c>
@@ -21145,16 +20644,16 @@
         <v>436</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>433</v>
       </c>
@@ -21162,16 +20661,16 @@
         <v>436</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>433</v>
       </c>
@@ -21179,16 +20678,16 @@
         <v>436</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>433</v>
       </c>
@@ -21196,16 +20695,16 @@
         <v>436</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>487</v>
       </c>
@@ -21216,13 +20715,13 @@
         <v>491</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>487</v>
       </c>
@@ -21230,16 +20729,16 @@
         <v>490</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>487</v>
       </c>
@@ -21247,16 +20746,16 @@
         <v>490</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>487</v>
       </c>
@@ -21264,16 +20763,16 @@
         <v>490</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>495</v>
       </c>
@@ -21284,13 +20783,13 @@
         <v>499</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>495</v>
       </c>
@@ -21298,16 +20797,16 @@
         <v>498</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>495</v>
       </c>
@@ -21315,16 +20814,16 @@
         <v>498</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>495</v>
       </c>
@@ -21332,16 +20831,16 @@
         <v>498</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="100" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>503</v>
       </c>
@@ -21352,13 +20851,13 @@
         <v>507</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>503</v>
       </c>
@@ -21366,16 +20865,16 @@
         <v>506</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="102" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>503</v>
       </c>
@@ -21383,16 +20882,16 @@
         <v>506</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="103" s="2" customFormat="1" ht="189" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="201.6" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>503</v>
       </c>
@@ -21400,16 +20899,16 @@
         <v>506</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="104" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>521</v>
       </c>
@@ -21420,13 +20919,13 @@
         <v>525</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="105" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>521</v>
       </c>
@@ -21434,16 +20933,16 @@
         <v>524</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="106" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>521</v>
       </c>
@@ -21451,16 +20950,16 @@
         <v>524</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="107" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>521</v>
       </c>
@@ -21468,16 +20967,16 @@
         <v>524</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="108" s="2" customFormat="1" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>558</v>
       </c>
@@ -21488,13 +20987,13 @@
         <v>69</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="109" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>558</v>
       </c>
@@ -21502,16 +21001,16 @@
         <v>68</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="110" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>558</v>
       </c>
@@ -21519,16 +21018,16 @@
         <v>68</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="111" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>558</v>
       </c>
@@ -21536,16 +21035,16 @@
         <v>68</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="112" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>563</v>
       </c>
@@ -21556,13 +21055,13 @@
         <v>567</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="113" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>563</v>
       </c>
@@ -21570,16 +21069,16 @@
         <v>566</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="114" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>563</v>
       </c>
@@ -21587,16 +21086,16 @@
         <v>566</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="115" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>563</v>
       </c>
@@ -21604,16 +21103,16 @@
         <v>566</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="116" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>609</v>
       </c>
@@ -21624,13 +21123,13 @@
         <v>613</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="117" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>609</v>
       </c>
@@ -21638,16 +21137,16 @@
         <v>612</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="118" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>609</v>
       </c>
@@ -21655,16 +21154,16 @@
         <v>612</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="119" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>609</v>
       </c>
@@ -21672,16 +21171,16 @@
         <v>612</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="120" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>616</v>
       </c>
@@ -21692,13 +21191,13 @@
         <v>619</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="121" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>616</v>
       </c>
@@ -21706,16 +21205,16 @@
         <v>105</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="122" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>616</v>
       </c>
@@ -21723,16 +21222,16 @@
         <v>105</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="123" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>616</v>
       </c>
@@ -21740,84 +21239,84 @@
         <v>105</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="124" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>638</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="125" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>638</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="126" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>638</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="127" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>638</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="128" ht="216" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>643</v>
       </c>
@@ -21828,64 +21327,64 @@
         <v>646</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="129" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="130" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="131" ht="216" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="132" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>648</v>
       </c>
@@ -21893,67 +21392,67 @@
         <v>139</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="133" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="134" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="135" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="136" ht="229.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>653</v>
       </c>
@@ -21961,101 +21460,101 @@
         <v>148</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="137" ht="229.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="138" ht="243" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="259.2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="139" ht="229.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="140" ht="229.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="141" ht="229.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="142" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>661</v>
       </c>
@@ -22063,67 +21562,67 @@
         <v>165</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="143" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="144" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="145" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="146" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>890</v>
       </c>
@@ -22131,67 +21630,67 @@
         <v>893</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="147" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>893</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="148" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>893</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="149" ht="202.5" spans="1:5">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>893</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="150" ht="202.5" spans="1:5">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>897</v>
       </c>
@@ -22199,67 +21698,67 @@
         <v>327</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="151" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="152" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="153" ht="202.5" spans="1:5">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="154" ht="202.5" spans="1:4">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>915</v>
       </c>
@@ -22267,55 +21766,55 @@
         <v>334</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="155" ht="202.5" spans="1:4">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="156" ht="202.5" spans="1:4">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="157" ht="202.5" spans="1:4">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="158" ht="202.5" spans="1:5">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>919</v>
       </c>
@@ -22323,135 +21822,135 @@
         <v>349</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="159" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="160" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="161" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="162" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="163" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="164" ht="202.5" spans="1:5">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="165" ht="202.5" spans="1:5">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="166" ht="216" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>922</v>
       </c>
@@ -22462,64 +21961,64 @@
         <v>359</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="167" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="168" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="169" ht="216" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="170" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>926</v>
       </c>
@@ -22527,67 +22026,67 @@
         <v>366</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="171" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="172" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="173" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="174" ht="216" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>929</v>
       </c>
@@ -22595,67 +22094,67 @@
         <v>932</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="175" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>932</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="176" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>932</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="177" ht="216" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>932</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="178" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>942</v>
       </c>
@@ -22663,118 +22162,118 @@
         <v>397</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="179" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="180" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="181" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="182" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="183" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="184" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="185" ht="202.5" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>945</v>
       </c>
@@ -22782,135 +22281,135 @@
         <v>403</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="186" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="187" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="188" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="189" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="190" ht="202.5" spans="1:5">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="191" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="192" ht="202.5" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="193" ht="202.5" spans="1:5">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>949</v>
       </c>
@@ -22918,101 +22417,101 @@
         <v>952</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="194" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>952</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="195" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>952</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="196" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>952</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="197" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>952</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="198" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>952</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="199" ht="216" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>955</v>
       </c>
@@ -23020,118 +22519,118 @@
         <v>409</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="200" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="201" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="202" ht="216" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="203" ht="216" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="204" ht="216" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="205" ht="216" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="206" ht="202.5" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>959</v>
       </c>
@@ -23139,101 +22638,101 @@
         <v>415</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="207" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="208" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="209" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="210" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="211" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="212" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>963</v>
       </c>
@@ -23241,101 +22740,101 @@
         <v>422</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="213" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="214" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="215" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="216" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="217" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="218" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>967</v>
       </c>
@@ -23343,118 +22842,118 @@
         <v>436</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="219" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="220" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="221" ht="202.5" spans="1:5">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="222" ht="202.5" spans="1:5">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="223" ht="202.5" spans="1:5">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="224" ht="202.5" spans="1:5">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="225" ht="202.5" spans="1:5">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>970</v>
       </c>
@@ -23462,67 +22961,67 @@
         <v>973</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="226" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>973</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="227" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>973</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="228" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>973</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="229" ht="202.5" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1043</v>
       </c>
@@ -23530,135 +23029,135 @@
         <v>490</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="230" ht="202.5" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="231" ht="202.5" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="232" ht="202.5" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="216" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>1629</v>
+        <v>1649</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="233" ht="216" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>1046</v>
+        <v>1650</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>498</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="234" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>498</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="235" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>498</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="236" ht="216" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>498</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="237" ht="216" spans="1:5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1050</v>
       </c>
@@ -23666,68 +23165,68 @@
         <v>506</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="238" ht="216" spans="1:5">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>506</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="239" ht="216" spans="1:5">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>506</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="240" ht="216" spans="1:5">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>506</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>